--- a/Code/Results/Cases/Case_4_249/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_249/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.021140358084612</v>
+        <v>1.044223236010621</v>
       </c>
       <c r="D2">
-        <v>1.039087302809049</v>
+        <v>1.051257324750364</v>
       </c>
       <c r="E2">
-        <v>1.03873335401618</v>
+        <v>1.057403316258272</v>
       </c>
       <c r="F2">
-        <v>1.045283871234812</v>
+        <v>1.063932650317414</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056642151158381</v>
+        <v>1.045411574056603</v>
       </c>
       <c r="J2">
-        <v>1.042706640295625</v>
+        <v>1.049289472796228</v>
       </c>
       <c r="K2">
-        <v>1.050027678183864</v>
+        <v>1.054009328123815</v>
       </c>
       <c r="L2">
-        <v>1.049678209909679</v>
+        <v>1.060138381339192</v>
       </c>
       <c r="M2">
-        <v>1.056146418949101</v>
+        <v>1.066649952673669</v>
       </c>
       <c r="N2">
-        <v>1.017971842186978</v>
+        <v>1.020308718565064</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.025069423789073</v>
+        <v>1.045060905255169</v>
       </c>
       <c r="D3">
-        <v>1.042070607469403</v>
+        <v>1.051914999137675</v>
       </c>
       <c r="E3">
-        <v>1.042235580760025</v>
+        <v>1.058202620256464</v>
       </c>
       <c r="F3">
-        <v>1.048883411149589</v>
+        <v>1.06475528482229</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057933048021488</v>
+        <v>1.045628548531108</v>
       </c>
       <c r="J3">
-        <v>1.044899242385155</v>
+        <v>1.049774863374952</v>
       </c>
       <c r="K3">
-        <v>1.052192063203077</v>
+        <v>1.054480011405298</v>
       </c>
       <c r="L3">
-        <v>1.052355131470003</v>
+        <v>1.060751551630359</v>
       </c>
       <c r="M3">
-        <v>1.058926811225075</v>
+        <v>1.067287675183049</v>
       </c>
       <c r="N3">
-        <v>1.018708470295696</v>
+        <v>1.020470953976256</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.027565587079597</v>
+        <v>1.04560356313494</v>
       </c>
       <c r="D4">
-        <v>1.043968357933002</v>
+        <v>1.052341061988759</v>
       </c>
       <c r="E4">
-        <v>1.044465648498458</v>
+        <v>1.058720786999058</v>
       </c>
       <c r="F4">
-        <v>1.051175422531907</v>
+        <v>1.065288573684773</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058743379942052</v>
+        <v>1.045767903474479</v>
       </c>
       <c r="J4">
-        <v>1.046289513232951</v>
+        <v>1.050088892953594</v>
       </c>
       <c r="K4">
-        <v>1.053563575901475</v>
+        <v>1.054784392292347</v>
       </c>
       <c r="L4">
-        <v>1.054055472501595</v>
+        <v>1.061148619222951</v>
       </c>
       <c r="M4">
-        <v>1.06069307870624</v>
+        <v>1.06770065925739</v>
       </c>
       <c r="N4">
-        <v>1.019175461569134</v>
+        <v>1.020575881784666</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.028604249931495</v>
+        <v>1.045831845623656</v>
       </c>
       <c r="D5">
-        <v>1.044758565373893</v>
+        <v>1.052520297563154</v>
       </c>
       <c r="E5">
-        <v>1.045394778205181</v>
+        <v>1.058938853072243</v>
       </c>
       <c r="F5">
-        <v>1.0521303548775</v>
+        <v>1.065513003201093</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059078180768282</v>
+        <v>1.045826238001789</v>
       </c>
       <c r="J5">
-        <v>1.046867335029483</v>
+        <v>1.050220897592088</v>
       </c>
       <c r="K5">
-        <v>1.054133387078565</v>
+        <v>1.054912308950255</v>
       </c>
       <c r="L5">
-        <v>1.05476288384028</v>
+        <v>1.061315617993993</v>
       </c>
       <c r="M5">
-        <v>1.0614279658823</v>
+        <v>1.067874356319805</v>
       </c>
       <c r="N5">
-        <v>1.019369528918038</v>
+        <v>1.020619981148374</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.028778026666246</v>
+        <v>1.045870183953602</v>
       </c>
       <c r="D6">
-        <v>1.044890804528462</v>
+        <v>1.052550398916118</v>
       </c>
       <c r="E6">
-        <v>1.045550298309083</v>
+        <v>1.058975480685226</v>
       </c>
       <c r="F6">
-        <v>1.052290193566941</v>
+        <v>1.065550699620548</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059134054726323</v>
+        <v>1.045836017924563</v>
       </c>
       <c r="J6">
-        <v>1.046963968881746</v>
+        <v>1.050243060928763</v>
       </c>
       <c r="K6">
-        <v>1.054228668458312</v>
+        <v>1.054933784038394</v>
       </c>
       <c r="L6">
-        <v>1.054881232402462</v>
+        <v>1.061343661973108</v>
       </c>
       <c r="M6">
-        <v>1.061550913875934</v>
+        <v>1.067903525380017</v>
       </c>
       <c r="N6">
-        <v>1.019401982982845</v>
+        <v>1.020627384891339</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.027579507445045</v>
+        <v>1.045606612872896</v>
       </c>
       <c r="D7">
-        <v>1.043978946341794</v>
+        <v>1.052343456478924</v>
       </c>
       <c r="E7">
-        <v>1.044478096216098</v>
+        <v>1.058723699912077</v>
       </c>
       <c r="F7">
-        <v>1.051188215953848</v>
+        <v>1.065291571602516</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058747876455648</v>
+        <v>1.045768683927785</v>
       </c>
       <c r="J7">
-        <v>1.046297260014777</v>
+        <v>1.050090656860286</v>
       </c>
       <c r="K7">
-        <v>1.053571216141419</v>
+        <v>1.054786101699748</v>
       </c>
       <c r="L7">
-        <v>1.054064953827931</v>
+        <v>1.0611508503895</v>
       </c>
       <c r="M7">
-        <v>1.060702928099876</v>
+        <v>1.067702979899413</v>
       </c>
       <c r="N7">
-        <v>1.019178063497579</v>
+        <v>1.020576471091394</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.022477979028803</v>
+        <v>1.044506198828215</v>
       </c>
       <c r="D8">
-        <v>1.040102412937812</v>
+        <v>1.051479483546067</v>
       </c>
       <c r="E8">
-        <v>1.039924580024123</v>
+        <v>1.057673244114245</v>
       </c>
       <c r="F8">
-        <v>1.046508200983846</v>
+        <v>1.064210457468981</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057083655077619</v>
+        <v>1.045485116864976</v>
       </c>
       <c r="J8">
-        <v>1.043453645448957</v>
+        <v>1.049453522514809</v>
       </c>
       <c r="K8">
-        <v>1.050765247630832</v>
+        <v>1.054168434762643</v>
       </c>
       <c r="L8">
-        <v>1.050589598372734</v>
+        <v>1.060345540933613</v>
       </c>
       <c r="M8">
-        <v>1.057092991945717</v>
+        <v>1.066865403641789</v>
       </c>
       <c r="N8">
-        <v>1.018222822992756</v>
+        <v>1.020363556716493</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.013118661430456</v>
+        <v>1.042572026839891</v>
       </c>
       <c r="D9">
-        <v>1.033011605183804</v>
+        <v>1.049960988851936</v>
       </c>
       <c r="E9">
-        <v>1.031612256553467</v>
+        <v>1.055829671544742</v>
       </c>
       <c r="F9">
-        <v>1.037964806130875</v>
+        <v>1.062313060384124</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053954509711419</v>
+        <v>1.044977490991519</v>
       </c>
       <c r="J9">
-        <v>1.038216521679562</v>
+        <v>1.048330479883007</v>
       </c>
       <c r="K9">
-        <v>1.045590871362387</v>
+        <v>1.053078686712963</v>
       </c>
       <c r="L9">
-        <v>1.044212453515462</v>
+        <v>1.058928890910801</v>
       </c>
       <c r="M9">
-        <v>1.05047056072361</v>
+        <v>1.065392124974479</v>
       </c>
       <c r="N9">
-        <v>1.016462972806686</v>
+        <v>1.01998801728361</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.006607095995195</v>
+        <v>1.041285971865566</v>
       </c>
       <c r="D10">
-        <v>1.028095263885616</v>
+        <v>1.048951412619736</v>
       </c>
       <c r="E10">
-        <v>1.025859291552885</v>
+        <v>1.054605756293536</v>
       </c>
       <c r="F10">
-        <v>1.032051839691798</v>
+        <v>1.06105339940752</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051728323362599</v>
+        <v>1.044633781345611</v>
       </c>
       <c r="J10">
-        <v>1.034561004170012</v>
+        <v>1.047581639265308</v>
       </c>
       <c r="K10">
-        <v>1.041975125164005</v>
+        <v>1.052351366688859</v>
       </c>
       <c r="L10">
-        <v>1.039776834580693</v>
+        <v>1.057986169748655</v>
       </c>
       <c r="M10">
-        <v>1.045865538030437</v>
+        <v>1.064411810107189</v>
       </c>
       <c r="N10">
-        <v>1.015234357811437</v>
+        <v>1.019737445706467</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.003717412945915</v>
+        <v>1.040729921624822</v>
       </c>
       <c r="D11">
-        <v>1.025918147088543</v>
+        <v>1.048514930730263</v>
       </c>
       <c r="E11">
-        <v>1.023313895655377</v>
+        <v>1.054077029120304</v>
       </c>
       <c r="F11">
-        <v>1.029435639597486</v>
+        <v>1.060509227185009</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050729240958882</v>
+        <v>1.044483706300983</v>
       </c>
       <c r="J11">
-        <v>1.032936356764628</v>
+        <v>1.0472573646577</v>
       </c>
       <c r="K11">
-        <v>1.040367295652979</v>
+        <v>1.052036251070023</v>
       </c>
       <c r="L11">
-        <v>1.037809143503861</v>
+        <v>1.057578386829261</v>
       </c>
       <c r="M11">
-        <v>1.043823002717705</v>
+        <v>1.063987787271462</v>
       </c>
       <c r="N11">
-        <v>1.014688292172496</v>
+        <v>1.019628901109619</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.002633011870951</v>
+        <v>1.04052350469391</v>
       </c>
       <c r="D12">
-        <v>1.025101900745683</v>
+        <v>1.048352904609247</v>
       </c>
       <c r="E12">
-        <v>1.022359884390045</v>
+        <v>1.05388082398899</v>
       </c>
       <c r="F12">
-        <v>1.028455089883177</v>
+        <v>1.060307290100747</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050352687450101</v>
+        <v>1.044427775288252</v>
       </c>
       <c r="J12">
-        <v>1.032326354426293</v>
+        <v>1.047136912671292</v>
       </c>
       <c r="K12">
-        <v>1.039763487438465</v>
+        <v>1.051919177216217</v>
       </c>
       <c r="L12">
-        <v>1.037070886132403</v>
+        <v>1.057426983016059</v>
       </c>
       <c r="M12">
-        <v>1.043056712186778</v>
+        <v>1.063830357075783</v>
       </c>
       <c r="N12">
-        <v>1.014483261500361</v>
+        <v>1.019588576462165</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.002866127835644</v>
+        <v>1.040567776147847</v>
       </c>
       <c r="D13">
-        <v>1.025277336012557</v>
+        <v>1.048387655085977</v>
       </c>
       <c r="E13">
-        <v>1.022564915680469</v>
+        <v>1.053922902131269</v>
       </c>
       <c r="F13">
-        <v>1.02866582472319</v>
+        <v>1.060350597538064</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050433708945919</v>
+        <v>1.044439781104934</v>
       </c>
       <c r="J13">
-        <v>1.032457502077991</v>
+        <v>1.047162750099057</v>
       </c>
       <c r="K13">
-        <v>1.039893308687</v>
+        <v>1.051944291104868</v>
       </c>
       <c r="L13">
-        <v>1.037229583365201</v>
+        <v>1.057459456684762</v>
       </c>
       <c r="M13">
-        <v>1.043221433299859</v>
+        <v>1.063864123158252</v>
       </c>
       <c r="N13">
-        <v>1.014527342125802</v>
+        <v>1.019597226515679</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.003628004352698</v>
+        <v>1.040712856579523</v>
       </c>
       <c r="D14">
-        <v>1.025850832156994</v>
+        <v>1.048501535495167</v>
       </c>
       <c r="E14">
-        <v>1.023235213207849</v>
+        <v>1.054060806902968</v>
       </c>
       <c r="F14">
-        <v>1.029354768400116</v>
+        <v>1.060492531059804</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050698227133393</v>
+        <v>1.044479086825019</v>
       </c>
       <c r="J14">
-        <v>1.032886068659036</v>
+        <v>1.047247408091379</v>
       </c>
       <c r="K14">
-        <v>1.040317520585397</v>
+        <v>1.052026574228943</v>
       </c>
       <c r="L14">
-        <v>1.037748271059135</v>
+        <v>1.057565870409329</v>
       </c>
       <c r="M14">
-        <v>1.043759817841207</v>
+        <v>1.063974772589191</v>
       </c>
       <c r="N14">
-        <v>1.014671389606888</v>
+        <v>1.019625567988486</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.004095942476652</v>
+        <v>1.040802262020836</v>
       </c>
       <c r="D15">
-        <v>1.026203169617616</v>
+        <v>1.048571714635671</v>
       </c>
       <c r="E15">
-        <v>1.023647062669308</v>
+        <v>1.054145799512479</v>
       </c>
       <c r="F15">
-        <v>1.029778074446563</v>
+        <v>1.060580006582836</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050860478048844</v>
+        <v>1.044503279693143</v>
       </c>
       <c r="J15">
-        <v>1.033149248617484</v>
+        <v>1.047299568453784</v>
       </c>
       <c r="K15">
-        <v>1.040578010727757</v>
+        <v>1.052077268188018</v>
       </c>
       <c r="L15">
-        <v>1.038066865831743</v>
+        <v>1.057631444066989</v>
       </c>
       <c r="M15">
-        <v>1.044090517394319</v>
+        <v>1.064042956782188</v>
       </c>
       <c r="N15">
-        <v>1.014759848214405</v>
+        <v>1.019643029277936</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.006797354493182</v>
+        <v>1.041322892509873</v>
       </c>
       <c r="D16">
-        <v>1.028238708048602</v>
+        <v>1.048980394785007</v>
       </c>
       <c r="E16">
-        <v>1.026027044907817</v>
+        <v>1.054640872387177</v>
       </c>
       <c r="F16">
-        <v>1.032224259178846</v>
+        <v>1.061089541240012</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05179387458128</v>
+        <v>1.044643715139141</v>
       </c>
       <c r="J16">
-        <v>1.034667924607727</v>
+        <v>1.047603159957106</v>
       </c>
       <c r="K16">
-        <v>1.042080921609321</v>
+        <v>1.05237227617105</v>
       </c>
       <c r="L16">
-        <v>1.039906407294688</v>
+        <v>1.05801324197514</v>
       </c>
       <c r="M16">
-        <v>1.046000045763189</v>
+        <v>1.064439960939052</v>
       </c>
       <c r="N16">
-        <v>1.015270294937703</v>
+        <v>1.019744648537028</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.008472753483701</v>
+        <v>1.041649690998856</v>
       </c>
       <c r="D17">
-        <v>1.029502400199543</v>
+        <v>1.049236930062452</v>
       </c>
       <c r="E17">
-        <v>1.027505141690569</v>
+        <v>1.054951750870911</v>
       </c>
       <c r="F17">
-        <v>1.033743468600777</v>
+        <v>1.061409500114817</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052369846148639</v>
+        <v>1.04473147343448</v>
       </c>
       <c r="J17">
-        <v>1.035609185349591</v>
+        <v>1.047793589998773</v>
       </c>
       <c r="K17">
-        <v>1.043012190668555</v>
+        <v>1.052557279311121</v>
       </c>
       <c r="L17">
-        <v>1.041047501398584</v>
+        <v>1.058252847699325</v>
       </c>
       <c r="M17">
-        <v>1.047184635583376</v>
+        <v>1.064689115477009</v>
       </c>
       <c r="N17">
-        <v>1.015586660597682</v>
+        <v>1.01980837978211</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.009443254448567</v>
+        <v>1.041840386038354</v>
       </c>
       <c r="D18">
-        <v>1.030234851233017</v>
+        <v>1.049386627395553</v>
       </c>
       <c r="E18">
-        <v>1.028362075554174</v>
+        <v>1.055133200175761</v>
       </c>
       <c r="F18">
-        <v>1.034624236563435</v>
+        <v>1.06159624904673</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052702423317584</v>
+        <v>1.044782541039601</v>
       </c>
       <c r="J18">
-        <v>1.036154193462287</v>
+        <v>1.047904662441532</v>
       </c>
       <c r="K18">
-        <v>1.043551331329363</v>
+        <v>1.052665170934442</v>
       </c>
       <c r="L18">
-        <v>1.041708565020931</v>
+        <v>1.058392646233105</v>
       </c>
       <c r="M18">
-        <v>1.047870926237656</v>
+        <v>1.064834487372885</v>
       </c>
       <c r="N18">
-        <v>1.015769839984322</v>
+        <v>1.019845548721832</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.009773043440599</v>
+        <v>1.041905421469092</v>
       </c>
       <c r="D19">
-        <v>1.030483820358114</v>
+        <v>1.049437681226846</v>
       </c>
       <c r="E19">
-        <v>1.028653394387165</v>
+        <v>1.05519508984916</v>
       </c>
       <c r="F19">
-        <v>1.034923657700509</v>
+        <v>1.061659946295161</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052815255750939</v>
+        <v>1.044799933339515</v>
       </c>
       <c r="J19">
-        <v>1.03633935401254</v>
+        <v>1.047942534865101</v>
       </c>
       <c r="K19">
-        <v>1.043734484306755</v>
+        <v>1.052701956167226</v>
       </c>
       <c r="L19">
-        <v>1.041933213323921</v>
+        <v>1.058440320753353</v>
       </c>
       <c r="M19">
-        <v>1.048104152258325</v>
+        <v>1.064884062890964</v>
       </c>
       <c r="N19">
-        <v>1.015832072684325</v>
+        <v>1.019858221605974</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.008293698811539</v>
+        <v>1.041614620429269</v>
       </c>
       <c r="D20">
-        <v>1.029367300035914</v>
+        <v>1.049209399555131</v>
       </c>
       <c r="E20">
-        <v>1.027347097957195</v>
+        <v>1.054918384213897</v>
       </c>
       <c r="F20">
-        <v>1.033581029063043</v>
+        <v>1.061375158887569</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052308400392729</v>
+        <v>1.044722070239713</v>
       </c>
       <c r="J20">
-        <v>1.035508613920044</v>
+        <v>1.047773158873503</v>
       </c>
       <c r="K20">
-        <v>1.042912695280181</v>
+        <v>1.05253743203352</v>
       </c>
       <c r="L20">
-        <v>1.04092554217208</v>
+        <v>1.058227136065087</v>
       </c>
       <c r="M20">
-        <v>1.04705802455967</v>
+        <v>1.06466237896211</v>
       </c>
       <c r="N20">
-        <v>1.015552857925607</v>
+        <v>1.019801542476117</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.003403959807789</v>
+        <v>1.040670130547414</v>
       </c>
       <c r="D21">
-        <v>1.025682163337444</v>
+        <v>1.048467997703668</v>
       </c>
       <c r="E21">
-        <v>1.023038066109865</v>
+        <v>1.054020192188232</v>
       </c>
       <c r="F21">
-        <v>1.029152137144742</v>
+        <v>1.060450729839407</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050620484994407</v>
+        <v>1.044467517410766</v>
       </c>
       <c r="J21">
-        <v>1.032760049057188</v>
+        <v>1.047222478466333</v>
       </c>
       <c r="K21">
-        <v>1.040192784720842</v>
+        <v>1.052002344603413</v>
       </c>
       <c r="L21">
-        <v>1.037595736404328</v>
+        <v>1.057534532414918</v>
       </c>
       <c r="M21">
-        <v>1.043601489450248</v>
+        <v>1.063942187122855</v>
       </c>
       <c r="N21">
-        <v>1.014629032578355</v>
+        <v>1.019617222302632</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.000265415212585</v>
+        <v>1.040077015663062</v>
       </c>
       <c r="D22">
-        <v>1.023321217584222</v>
+        <v>1.048002443955778</v>
       </c>
       <c r="E22">
-        <v>1.020279207041979</v>
+        <v>1.053456550052606</v>
       </c>
       <c r="F22">
-        <v>1.026316531457411</v>
+        <v>1.05987062055295</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049527601976938</v>
+        <v>1.044306391553266</v>
       </c>
       <c r="J22">
-        <v>1.030993963216825</v>
+        <v>1.046876233147457</v>
       </c>
       <c r="K22">
-        <v>1.038444413828492</v>
+        <v>1.051665764817845</v>
       </c>
       <c r="L22">
-        <v>1.035459356423721</v>
+        <v>1.057099441399392</v>
       </c>
       <c r="M22">
-        <v>1.04138407891554</v>
+        <v>1.063489784175582</v>
       </c>
       <c r="N22">
-        <v>1.014035427105544</v>
+        <v>1.019501296383569</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.001935477285268</v>
+        <v>1.040391367953339</v>
       </c>
       <c r="D23">
-        <v>1.024577074198863</v>
+        <v>1.048249185792867</v>
       </c>
       <c r="E23">
-        <v>1.021746563200432</v>
+        <v>1.053755243740353</v>
       </c>
       <c r="F23">
-        <v>1.027824707244685</v>
+        <v>1.060178041011479</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050110017611245</v>
+        <v>1.044391909365855</v>
       </c>
       <c r="J23">
-        <v>1.031933886564763</v>
+        <v>1.047059784922009</v>
       </c>
       <c r="K23">
-        <v>1.039374971937348</v>
+        <v>1.051844205811505</v>
       </c>
       <c r="L23">
-        <v>1.036596054219908</v>
+        <v>1.057330055172713</v>
       </c>
       <c r="M23">
-        <v>1.042563863573529</v>
+        <v>1.063729572096993</v>
       </c>
       <c r="N23">
-        <v>1.014351347471489</v>
+        <v>1.019562754208171</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.008374626674591</v>
+        <v>1.041630467066147</v>
       </c>
       <c r="D24">
-        <v>1.029428360299087</v>
+        <v>1.049221839206845</v>
       </c>
       <c r="E24">
-        <v>1.027418527206482</v>
+        <v>1.054933460802065</v>
       </c>
       <c r="F24">
-        <v>1.033654445038231</v>
+        <v>1.06139067583223</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052336175509392</v>
+        <v>1.044726319510551</v>
       </c>
       <c r="J24">
-        <v>1.035554070203983</v>
+        <v>1.047782390826459</v>
       </c>
       <c r="K24">
-        <v>1.042957665469993</v>
+        <v>1.052546400218435</v>
       </c>
       <c r="L24">
-        <v>1.040980664234986</v>
+        <v>1.058238753920705</v>
       </c>
       <c r="M24">
-        <v>1.047115249011685</v>
+        <v>1.064674459905759</v>
       </c>
       <c r="N24">
-        <v>1.015568136068168</v>
+        <v>1.019804631974096</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.015584419574963</v>
+        <v>1.043071465933675</v>
       </c>
       <c r="D25">
-        <v>1.034876981788951</v>
+        <v>1.050353078636142</v>
       </c>
       <c r="E25">
-        <v>1.033797116930357</v>
+        <v>1.056305382856304</v>
       </c>
       <c r="F25">
-        <v>1.040210417967433</v>
+        <v>1.062802662662131</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054787552576535</v>
+        <v>1.04510966086373</v>
       </c>
       <c r="J25">
-        <v>1.039598452410303</v>
+        <v>1.048620844588183</v>
       </c>
       <c r="K25">
-        <v>1.046956970759003</v>
+        <v>1.053360563296764</v>
       </c>
       <c r="L25">
-        <v>1.045892490343503</v>
+        <v>1.059294833928986</v>
       </c>
       <c r="M25">
-        <v>1.052215015189688</v>
+        <v>1.06577268019763</v>
       </c>
       <c r="N25">
-        <v>1.016927399850655</v>
+        <v>1.020085142646241</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_249/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_249/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044223236010621</v>
+        <v>1.021140358084612</v>
       </c>
       <c r="D2">
-        <v>1.051257324750364</v>
+        <v>1.039087302809049</v>
       </c>
       <c r="E2">
-        <v>1.057403316258272</v>
+        <v>1.03873335401618</v>
       </c>
       <c r="F2">
-        <v>1.063932650317414</v>
+        <v>1.045283871234812</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045411574056603</v>
+        <v>1.056642151158381</v>
       </c>
       <c r="J2">
-        <v>1.049289472796228</v>
+        <v>1.042706640295625</v>
       </c>
       <c r="K2">
-        <v>1.054009328123815</v>
+        <v>1.050027678183865</v>
       </c>
       <c r="L2">
-        <v>1.060138381339192</v>
+        <v>1.049678209909678</v>
       </c>
       <c r="M2">
-        <v>1.066649952673669</v>
+        <v>1.056146418949101</v>
       </c>
       <c r="N2">
-        <v>1.020308718565064</v>
+        <v>1.017971842186978</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045060905255169</v>
+        <v>1.025069423789073</v>
       </c>
       <c r="D3">
-        <v>1.051914999137675</v>
+        <v>1.042070607469404</v>
       </c>
       <c r="E3">
-        <v>1.058202620256464</v>
+        <v>1.042235580760026</v>
       </c>
       <c r="F3">
-        <v>1.06475528482229</v>
+        <v>1.04888341114959</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045628548531108</v>
+        <v>1.057933048021489</v>
       </c>
       <c r="J3">
-        <v>1.049774863374952</v>
+        <v>1.044899242385155</v>
       </c>
       <c r="K3">
-        <v>1.054480011405298</v>
+        <v>1.052192063203078</v>
       </c>
       <c r="L3">
-        <v>1.060751551630359</v>
+        <v>1.052355131470004</v>
       </c>
       <c r="M3">
-        <v>1.067287675183049</v>
+        <v>1.058926811225076</v>
       </c>
       <c r="N3">
-        <v>1.020470953976256</v>
+        <v>1.018708470295696</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04560356313494</v>
+        <v>1.027565587079598</v>
       </c>
       <c r="D4">
-        <v>1.052341061988759</v>
+        <v>1.043968357933002</v>
       </c>
       <c r="E4">
-        <v>1.058720786999058</v>
+        <v>1.044465648498459</v>
       </c>
       <c r="F4">
-        <v>1.065288573684773</v>
+        <v>1.051175422531907</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045767903474479</v>
+        <v>1.058743379942053</v>
       </c>
       <c r="J4">
-        <v>1.050088892953594</v>
+        <v>1.046289513232951</v>
       </c>
       <c r="K4">
-        <v>1.054784392292347</v>
+        <v>1.053563575901476</v>
       </c>
       <c r="L4">
-        <v>1.061148619222951</v>
+        <v>1.054055472501595</v>
       </c>
       <c r="M4">
-        <v>1.06770065925739</v>
+        <v>1.06069307870624</v>
       </c>
       <c r="N4">
-        <v>1.020575881784666</v>
+        <v>1.019175461569134</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045831845623656</v>
+        <v>1.028604249931495</v>
       </c>
       <c r="D5">
-        <v>1.052520297563154</v>
+        <v>1.044758565373894</v>
       </c>
       <c r="E5">
-        <v>1.058938853072243</v>
+        <v>1.045394778205181</v>
       </c>
       <c r="F5">
-        <v>1.065513003201093</v>
+        <v>1.052130354877501</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045826238001789</v>
+        <v>1.059078180768283</v>
       </c>
       <c r="J5">
-        <v>1.050220897592088</v>
+        <v>1.046867335029483</v>
       </c>
       <c r="K5">
-        <v>1.054912308950255</v>
+        <v>1.054133387078566</v>
       </c>
       <c r="L5">
-        <v>1.061315617993993</v>
+        <v>1.05476288384028</v>
       </c>
       <c r="M5">
-        <v>1.067874356319805</v>
+        <v>1.061427965882301</v>
       </c>
       <c r="N5">
-        <v>1.020619981148374</v>
+        <v>1.019369528918038</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.045870183953602</v>
+        <v>1.028778026666246</v>
       </c>
       <c r="D6">
-        <v>1.052550398916118</v>
+        <v>1.044890804528462</v>
       </c>
       <c r="E6">
-        <v>1.058975480685226</v>
+        <v>1.045550298309083</v>
       </c>
       <c r="F6">
-        <v>1.065550699620548</v>
+        <v>1.052290193566941</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045836017924563</v>
+        <v>1.059134054726323</v>
       </c>
       <c r="J6">
-        <v>1.050243060928763</v>
+        <v>1.046963968881746</v>
       </c>
       <c r="K6">
-        <v>1.054933784038394</v>
+        <v>1.054228668458312</v>
       </c>
       <c r="L6">
-        <v>1.061343661973108</v>
+        <v>1.054881232402462</v>
       </c>
       <c r="M6">
-        <v>1.067903525380017</v>
+        <v>1.061550913875934</v>
       </c>
       <c r="N6">
-        <v>1.020627384891339</v>
+        <v>1.019401982982845</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045606612872896</v>
+        <v>1.027579507445045</v>
       </c>
       <c r="D7">
-        <v>1.052343456478924</v>
+        <v>1.043978946341793</v>
       </c>
       <c r="E7">
-        <v>1.058723699912077</v>
+        <v>1.044478096216098</v>
       </c>
       <c r="F7">
-        <v>1.065291571602516</v>
+        <v>1.051188215953848</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045768683927785</v>
+        <v>1.058747876455648</v>
       </c>
       <c r="J7">
-        <v>1.050090656860286</v>
+        <v>1.046297260014777</v>
       </c>
       <c r="K7">
-        <v>1.054786101699748</v>
+        <v>1.053571216141418</v>
       </c>
       <c r="L7">
-        <v>1.0611508503895</v>
+        <v>1.05406495382793</v>
       </c>
       <c r="M7">
-        <v>1.067702979899413</v>
+        <v>1.060702928099875</v>
       </c>
       <c r="N7">
-        <v>1.020576471091394</v>
+        <v>1.019178063497579</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.044506198828215</v>
+        <v>1.022477979028803</v>
       </c>
       <c r="D8">
-        <v>1.051479483546067</v>
+        <v>1.040102412937812</v>
       </c>
       <c r="E8">
-        <v>1.057673244114245</v>
+        <v>1.039924580024123</v>
       </c>
       <c r="F8">
-        <v>1.064210457468981</v>
+        <v>1.046508200983846</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045485116864976</v>
+        <v>1.057083655077618</v>
       </c>
       <c r="J8">
-        <v>1.049453522514809</v>
+        <v>1.043453645448957</v>
       </c>
       <c r="K8">
-        <v>1.054168434762643</v>
+        <v>1.050765247630832</v>
       </c>
       <c r="L8">
-        <v>1.060345540933613</v>
+        <v>1.050589598372734</v>
       </c>
       <c r="M8">
-        <v>1.066865403641789</v>
+        <v>1.057092991945717</v>
       </c>
       <c r="N8">
-        <v>1.020363556716493</v>
+        <v>1.018222822992756</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042572026839891</v>
+        <v>1.013118661430457</v>
       </c>
       <c r="D9">
-        <v>1.049960988851936</v>
+        <v>1.033011605183805</v>
       </c>
       <c r="E9">
-        <v>1.055829671544742</v>
+        <v>1.031612256553468</v>
       </c>
       <c r="F9">
-        <v>1.062313060384124</v>
+        <v>1.037964806130875</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044977490991519</v>
+        <v>1.05395450971142</v>
       </c>
       <c r="J9">
-        <v>1.048330479883007</v>
+        <v>1.038216521679562</v>
       </c>
       <c r="K9">
-        <v>1.053078686712963</v>
+        <v>1.045590871362388</v>
       </c>
       <c r="L9">
-        <v>1.058928890910801</v>
+        <v>1.044212453515463</v>
       </c>
       <c r="M9">
-        <v>1.065392124974479</v>
+        <v>1.05047056072361</v>
       </c>
       <c r="N9">
-        <v>1.01998801728361</v>
+        <v>1.016462972806686</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041285971865566</v>
+        <v>1.006607095995195</v>
       </c>
       <c r="D10">
-        <v>1.048951412619736</v>
+        <v>1.028095263885618</v>
       </c>
       <c r="E10">
-        <v>1.054605756293536</v>
+        <v>1.025859291552885</v>
       </c>
       <c r="F10">
-        <v>1.06105339940752</v>
+        <v>1.032051839691798</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044633781345611</v>
+        <v>1.0517283233626</v>
       </c>
       <c r="J10">
-        <v>1.047581639265308</v>
+        <v>1.034561004170012</v>
       </c>
       <c r="K10">
-        <v>1.052351366688859</v>
+        <v>1.041975125164006</v>
       </c>
       <c r="L10">
-        <v>1.057986169748655</v>
+        <v>1.039776834580694</v>
       </c>
       <c r="M10">
-        <v>1.064411810107189</v>
+        <v>1.045865538030438</v>
       </c>
       <c r="N10">
-        <v>1.019737445706467</v>
+        <v>1.015234357811438</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040729921624822</v>
+        <v>1.003717412945915</v>
       </c>
       <c r="D11">
-        <v>1.048514930730263</v>
+        <v>1.025918147088542</v>
       </c>
       <c r="E11">
-        <v>1.054077029120304</v>
+        <v>1.023313895655376</v>
       </c>
       <c r="F11">
-        <v>1.060509227185009</v>
+        <v>1.029435639597485</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044483706300983</v>
+        <v>1.050729240958882</v>
       </c>
       <c r="J11">
-        <v>1.0472573646577</v>
+        <v>1.032936356764627</v>
       </c>
       <c r="K11">
-        <v>1.052036251070023</v>
+        <v>1.040367295652979</v>
       </c>
       <c r="L11">
-        <v>1.057578386829261</v>
+        <v>1.037809143503861</v>
       </c>
       <c r="M11">
-        <v>1.063987787271462</v>
+        <v>1.043823002717704</v>
       </c>
       <c r="N11">
-        <v>1.019628901109619</v>
+        <v>1.014688292172495</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.04052350469391</v>
+        <v>1.002633011870949</v>
       </c>
       <c r="D12">
-        <v>1.048352904609247</v>
+        <v>1.025101900745683</v>
       </c>
       <c r="E12">
-        <v>1.05388082398899</v>
+        <v>1.022359884390045</v>
       </c>
       <c r="F12">
-        <v>1.060307290100747</v>
+        <v>1.028455089883177</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044427775288252</v>
+        <v>1.0503526874501</v>
       </c>
       <c r="J12">
-        <v>1.047136912671292</v>
+        <v>1.032326354426293</v>
       </c>
       <c r="K12">
-        <v>1.051919177216217</v>
+        <v>1.039763487438465</v>
       </c>
       <c r="L12">
-        <v>1.057426983016059</v>
+        <v>1.037070886132403</v>
       </c>
       <c r="M12">
-        <v>1.063830357075783</v>
+        <v>1.043056712186777</v>
       </c>
       <c r="N12">
-        <v>1.019588576462165</v>
+        <v>1.014483261500361</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040567776147847</v>
+        <v>1.002866127835644</v>
       </c>
       <c r="D13">
-        <v>1.048387655085977</v>
+        <v>1.025277336012557</v>
       </c>
       <c r="E13">
-        <v>1.053922902131269</v>
+        <v>1.022564915680469</v>
       </c>
       <c r="F13">
-        <v>1.060350597538064</v>
+        <v>1.02866582472319</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044439781104934</v>
+        <v>1.050433708945919</v>
       </c>
       <c r="J13">
-        <v>1.047162750099057</v>
+        <v>1.032457502077991</v>
       </c>
       <c r="K13">
-        <v>1.051944291104868</v>
+        <v>1.039893308687</v>
       </c>
       <c r="L13">
-        <v>1.057459456684762</v>
+        <v>1.037229583365201</v>
       </c>
       <c r="M13">
-        <v>1.063864123158252</v>
+        <v>1.043221433299859</v>
       </c>
       <c r="N13">
-        <v>1.019597226515679</v>
+        <v>1.014527342125802</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040712856579523</v>
+        <v>1.003628004352699</v>
       </c>
       <c r="D14">
-        <v>1.048501535495167</v>
+        <v>1.025850832156994</v>
       </c>
       <c r="E14">
-        <v>1.054060806902968</v>
+        <v>1.023235213207849</v>
       </c>
       <c r="F14">
-        <v>1.060492531059804</v>
+        <v>1.029354768400116</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044479086825019</v>
+        <v>1.050698227133393</v>
       </c>
       <c r="J14">
-        <v>1.047247408091379</v>
+        <v>1.032886068659036</v>
       </c>
       <c r="K14">
-        <v>1.052026574228943</v>
+        <v>1.040317520585397</v>
       </c>
       <c r="L14">
-        <v>1.057565870409329</v>
+        <v>1.037748271059136</v>
       </c>
       <c r="M14">
-        <v>1.063974772589191</v>
+        <v>1.043759817841207</v>
       </c>
       <c r="N14">
-        <v>1.019625567988486</v>
+        <v>1.014671389606888</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040802262020836</v>
+        <v>1.004095942476652</v>
       </c>
       <c r="D15">
-        <v>1.048571714635671</v>
+        <v>1.026203169617616</v>
       </c>
       <c r="E15">
-        <v>1.054145799512479</v>
+        <v>1.023647062669308</v>
       </c>
       <c r="F15">
-        <v>1.060580006582836</v>
+        <v>1.029778074446563</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044503279693143</v>
+        <v>1.050860478048844</v>
       </c>
       <c r="J15">
-        <v>1.047299568453784</v>
+        <v>1.033149248617484</v>
       </c>
       <c r="K15">
-        <v>1.052077268188018</v>
+        <v>1.040578010727757</v>
       </c>
       <c r="L15">
-        <v>1.057631444066989</v>
+        <v>1.038066865831743</v>
       </c>
       <c r="M15">
-        <v>1.064042956782188</v>
+        <v>1.044090517394319</v>
       </c>
       <c r="N15">
-        <v>1.019643029277936</v>
+        <v>1.014759848214405</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041322892509873</v>
+        <v>1.006797354493182</v>
       </c>
       <c r="D16">
-        <v>1.048980394785007</v>
+        <v>1.028238708048602</v>
       </c>
       <c r="E16">
-        <v>1.054640872387177</v>
+        <v>1.026027044907817</v>
       </c>
       <c r="F16">
-        <v>1.061089541240012</v>
+        <v>1.032224259178846</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044643715139141</v>
+        <v>1.05179387458128</v>
       </c>
       <c r="J16">
-        <v>1.047603159957106</v>
+        <v>1.034667924607727</v>
       </c>
       <c r="K16">
-        <v>1.05237227617105</v>
+        <v>1.04208092160932</v>
       </c>
       <c r="L16">
-        <v>1.05801324197514</v>
+        <v>1.039906407294688</v>
       </c>
       <c r="M16">
-        <v>1.064439960939052</v>
+        <v>1.046000045763188</v>
       </c>
       <c r="N16">
-        <v>1.019744648537028</v>
+        <v>1.015270294937703</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.041649690998856</v>
+        <v>1.008472753483701</v>
       </c>
       <c r="D17">
-        <v>1.049236930062452</v>
+        <v>1.029502400199543</v>
       </c>
       <c r="E17">
-        <v>1.054951750870911</v>
+        <v>1.02750514169057</v>
       </c>
       <c r="F17">
-        <v>1.061409500114817</v>
+        <v>1.033743468600778</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04473147343448</v>
+        <v>1.052369846148639</v>
       </c>
       <c r="J17">
-        <v>1.047793589998773</v>
+        <v>1.035609185349591</v>
       </c>
       <c r="K17">
-        <v>1.052557279311121</v>
+        <v>1.043012190668555</v>
       </c>
       <c r="L17">
-        <v>1.058252847699325</v>
+        <v>1.041047501398585</v>
       </c>
       <c r="M17">
-        <v>1.064689115477009</v>
+        <v>1.047184635583376</v>
       </c>
       <c r="N17">
-        <v>1.01980837978211</v>
+        <v>1.015586660597682</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041840386038354</v>
+        <v>1.009443254448567</v>
       </c>
       <c r="D18">
-        <v>1.049386627395553</v>
+        <v>1.030234851233017</v>
       </c>
       <c r="E18">
-        <v>1.055133200175761</v>
+        <v>1.028362075554174</v>
       </c>
       <c r="F18">
-        <v>1.06159624904673</v>
+        <v>1.034624236563434</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044782541039601</v>
+        <v>1.052702423317584</v>
       </c>
       <c r="J18">
-        <v>1.047904662441532</v>
+        <v>1.036154193462288</v>
       </c>
       <c r="K18">
-        <v>1.052665170934442</v>
+        <v>1.043551331329363</v>
       </c>
       <c r="L18">
-        <v>1.058392646233105</v>
+        <v>1.041708565020931</v>
       </c>
       <c r="M18">
-        <v>1.064834487372885</v>
+        <v>1.047870926237656</v>
       </c>
       <c r="N18">
-        <v>1.019845548721832</v>
+        <v>1.015769839984322</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041905421469092</v>
+        <v>1.0097730434406</v>
       </c>
       <c r="D19">
-        <v>1.049437681226846</v>
+        <v>1.030483820358115</v>
       </c>
       <c r="E19">
-        <v>1.05519508984916</v>
+        <v>1.028653394387166</v>
       </c>
       <c r="F19">
-        <v>1.061659946295161</v>
+        <v>1.03492365770051</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044799933339515</v>
+        <v>1.052815255750939</v>
       </c>
       <c r="J19">
-        <v>1.047942534865101</v>
+        <v>1.036339354012541</v>
       </c>
       <c r="K19">
-        <v>1.052701956167226</v>
+        <v>1.043734484306756</v>
       </c>
       <c r="L19">
-        <v>1.058440320753353</v>
+        <v>1.041933213323921</v>
       </c>
       <c r="M19">
-        <v>1.064884062890964</v>
+        <v>1.048104152258326</v>
       </c>
       <c r="N19">
-        <v>1.019858221605974</v>
+        <v>1.015832072684325</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.041614620429269</v>
+        <v>1.008293698811539</v>
       </c>
       <c r="D20">
-        <v>1.049209399555131</v>
+        <v>1.029367300035913</v>
       </c>
       <c r="E20">
-        <v>1.054918384213897</v>
+        <v>1.027347097957194</v>
       </c>
       <c r="F20">
-        <v>1.061375158887569</v>
+        <v>1.033581029063042</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044722070239713</v>
+        <v>1.052308400392729</v>
       </c>
       <c r="J20">
-        <v>1.047773158873503</v>
+        <v>1.035508613920044</v>
       </c>
       <c r="K20">
-        <v>1.05253743203352</v>
+        <v>1.042912695280181</v>
       </c>
       <c r="L20">
-        <v>1.058227136065087</v>
+        <v>1.04092554217208</v>
       </c>
       <c r="M20">
-        <v>1.06466237896211</v>
+        <v>1.047058024559669</v>
       </c>
       <c r="N20">
-        <v>1.019801542476117</v>
+        <v>1.015552857925607</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040670130547414</v>
+        <v>1.00340395980779</v>
       </c>
       <c r="D21">
-        <v>1.048467997703668</v>
+        <v>1.025682163337444</v>
       </c>
       <c r="E21">
-        <v>1.054020192188232</v>
+        <v>1.023038066109866</v>
       </c>
       <c r="F21">
-        <v>1.060450729839407</v>
+        <v>1.029152137144743</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044467517410766</v>
+        <v>1.050620484994408</v>
       </c>
       <c r="J21">
-        <v>1.047222478466333</v>
+        <v>1.032760049057189</v>
       </c>
       <c r="K21">
-        <v>1.052002344603413</v>
+        <v>1.040192784720842</v>
       </c>
       <c r="L21">
-        <v>1.057534532414918</v>
+        <v>1.037595736404328</v>
       </c>
       <c r="M21">
-        <v>1.063942187122855</v>
+        <v>1.043601489450249</v>
       </c>
       <c r="N21">
-        <v>1.019617222302632</v>
+        <v>1.014629032578356</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.040077015663062</v>
+        <v>1.000265415212584</v>
       </c>
       <c r="D22">
-        <v>1.048002443955778</v>
+        <v>1.023321217584221</v>
       </c>
       <c r="E22">
-        <v>1.053456550052606</v>
+        <v>1.020279207041977</v>
       </c>
       <c r="F22">
-        <v>1.05987062055295</v>
+        <v>1.02631653145741</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044306391553266</v>
+        <v>1.049527601976937</v>
       </c>
       <c r="J22">
-        <v>1.046876233147457</v>
+        <v>1.030993963216825</v>
       </c>
       <c r="K22">
-        <v>1.051665764817845</v>
+        <v>1.038444413828491</v>
       </c>
       <c r="L22">
-        <v>1.057099441399392</v>
+        <v>1.03545935642372</v>
       </c>
       <c r="M22">
-        <v>1.063489784175582</v>
+        <v>1.041384078915539</v>
       </c>
       <c r="N22">
-        <v>1.019501296383569</v>
+        <v>1.014035427105544</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040391367953339</v>
+        <v>1.001935477285268</v>
       </c>
       <c r="D23">
-        <v>1.048249185792867</v>
+        <v>1.024577074198863</v>
       </c>
       <c r="E23">
-        <v>1.053755243740353</v>
+        <v>1.021746563200433</v>
       </c>
       <c r="F23">
-        <v>1.060178041011479</v>
+        <v>1.027824707244685</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044391909365855</v>
+        <v>1.050110017611246</v>
       </c>
       <c r="J23">
-        <v>1.047059784922009</v>
+        <v>1.031933886564763</v>
       </c>
       <c r="K23">
-        <v>1.051844205811505</v>
+        <v>1.039374971937349</v>
       </c>
       <c r="L23">
-        <v>1.057330055172713</v>
+        <v>1.036596054219908</v>
       </c>
       <c r="M23">
-        <v>1.063729572096993</v>
+        <v>1.042563863573529</v>
       </c>
       <c r="N23">
-        <v>1.019562754208171</v>
+        <v>1.014351347471489</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041630467066147</v>
+        <v>1.008374626674591</v>
       </c>
       <c r="D24">
-        <v>1.049221839206845</v>
+        <v>1.029428360299087</v>
       </c>
       <c r="E24">
-        <v>1.054933460802065</v>
+        <v>1.027418527206482</v>
       </c>
       <c r="F24">
-        <v>1.06139067583223</v>
+        <v>1.03365444503823</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044726319510551</v>
+        <v>1.052336175509391</v>
       </c>
       <c r="J24">
-        <v>1.047782390826459</v>
+        <v>1.035554070203983</v>
       </c>
       <c r="K24">
-        <v>1.052546400218435</v>
+        <v>1.042957665469993</v>
       </c>
       <c r="L24">
-        <v>1.058238753920705</v>
+        <v>1.040980664234986</v>
       </c>
       <c r="M24">
-        <v>1.064674459905759</v>
+        <v>1.047115249011684</v>
       </c>
       <c r="N24">
-        <v>1.019804631974096</v>
+        <v>1.015568136068168</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043071465933675</v>
+        <v>1.015584419574962</v>
       </c>
       <c r="D25">
-        <v>1.050353078636142</v>
+        <v>1.034876981788951</v>
       </c>
       <c r="E25">
-        <v>1.056305382856304</v>
+        <v>1.033797116930356</v>
       </c>
       <c r="F25">
-        <v>1.062802662662131</v>
+        <v>1.040210417967432</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04510966086373</v>
+        <v>1.054787552576535</v>
       </c>
       <c r="J25">
-        <v>1.048620844588183</v>
+        <v>1.039598452410303</v>
       </c>
       <c r="K25">
-        <v>1.053360563296764</v>
+        <v>1.046956970759002</v>
       </c>
       <c r="L25">
-        <v>1.059294833928986</v>
+        <v>1.045892490343503</v>
       </c>
       <c r="M25">
-        <v>1.06577268019763</v>
+        <v>1.052215015189687</v>
       </c>
       <c r="N25">
-        <v>1.020085142646241</v>
+        <v>1.016927399850655</v>
       </c>
     </row>
   </sheetData>
